--- a/LuBan/Datas/C_Condition.xlsx
+++ b/LuBan/Datas/C_Condition.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -31,21 +31,12 @@
     <t>AreaType</t>
   </si>
   <si>
-    <t>AreaSelectType</t>
-  </si>
-  <si>
     <t>CustomRule</t>
   </si>
   <si>
     <t>AreaInfo</t>
   </si>
   <si>
-    <t>AreaOffset</t>
-  </si>
-  <si>
-    <t>AreaSelectInfo</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -61,9 +52,6 @@
     <t>Condition.Enum.AreaType</t>
   </si>
   <si>
-    <t>Condition.Enum.AreaSelectType</t>
-  </si>
-  <si>
     <t>vector2</t>
   </si>
   <si>
@@ -85,21 +73,12 @@
     <t>范围类型</t>
   </si>
   <si>
-    <t>范围选择类型</t>
-  </si>
-  <si>
     <t>自定义规则ID</t>
   </si>
   <si>
     <t>范围信息</t>
   </si>
   <si>
-    <t>范围偏移</t>
-  </si>
-  <si>
-    <t>范围选择信息</t>
-  </si>
-  <si>
     <t>敌方</t>
   </si>
   <si>
@@ -121,13 +100,10 @@
     <t>0.5,30</t>
   </si>
   <si>
-    <t>范围选择</t>
-  </si>
-  <si>
     <t>矩形</t>
   </si>
   <si>
-    <t>圆形</t>
+    <t>1,10</t>
   </si>
   <si>
     <t>自定义</t>
@@ -1138,25 +1114,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="16.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="20.6363636363636" style="2" customWidth="1"/>
     <col min="3" max="3" width="33" style="2" customWidth="1"/>
     <col min="4" max="4" width="49.2727272727273" style="2" customWidth="1"/>
     <col min="5" max="5" width="37.7272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.4545454545455" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.4545454545455" style="2" customWidth="1"/>
-    <col min="8" max="16383" width="20.6363636363636" style="2" customWidth="1"/>
-    <col min="16384" max="16384" width="20.6363636363636" style="2"/>
+    <col min="6" max="6" width="22.4545454545455" style="2" customWidth="1"/>
+    <col min="7" max="16380" width="20.6363636363636" style="2" customWidth="1"/>
+    <col min="16381" max="16384" width="20.6363636363636" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="18" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1178,174 +1153,131 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="18" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="18" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="18" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" ht="17.25" spans="2:10">
+    <row r="5" ht="17.25" spans="2:7">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:7">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:7">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -1353,19 +1285,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2">
         <v>1001</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
